--- a/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
+++ b/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
@@ -34,28 +34,40 @@
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -64,12 +76,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -106,18 +112,18 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -148,12 +154,6 @@
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA</t>
   </si>
   <si>
@@ -166,52 +166,58 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
     <t xml:space="preserve">LR</t>
   </si>
   <si>
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
     <t xml:space="preserve">LY</t>
   </si>
   <si>
     <t xml:space="preserve">Libya</t>
   </si>
   <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
     <t xml:space="preserve">ML</t>
   </si>
   <si>
     <t xml:space="preserve">Mali</t>
   </si>
   <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
     <t xml:space="preserve">MM</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
   </si>
   <si>
     <t xml:space="preserve">NG</t>
@@ -220,10 +226,16 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
   </si>
   <si>
     <t xml:space="preserve">PH</t>
@@ -232,54 +244,48 @@
     <t xml:space="preserve">Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
     <t xml:space="preserve">RW</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena, Ascension &amp; Tristan da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Helena, Ascension &amp; Tristan da Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
     <t xml:space="preserve">SY</t>
   </si>
   <si>
@@ -292,16 +298,22 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TR</t>
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -310,12 +322,6 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
@@ -326,12 +332,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -905,49 +905,49 @@
         <v>2016</v>
       </c>
       <c r="D6" t="n">
-        <v>1159685</v>
+        <v>106479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>4617409</v>
+        <v>203118897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="n">
-        <v>1818700</v>
+        <v>181530392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="n">
-        <v>476819</v>
+        <v>119612094</v>
       </c>
     </row>
     <row r="10">
@@ -958,10 +958,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="n">
-        <v>203118897</v>
+        <v>103063053</v>
       </c>
     </row>
     <row r="11">
@@ -972,52 +972,52 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>181530392</v>
+        <v>83875381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="n">
-        <v>119612094</v>
+        <v>1159685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D13" t="n">
-        <v>103063053</v>
+        <v>4617409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D14" t="n">
-        <v>83875381</v>
+        <v>1818700</v>
       </c>
     </row>
     <row r="15">
@@ -1028,24 +1028,24 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D15" t="n">
-        <v>3620070</v>
+        <v>476819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="n">
-        <v>124830</v>
+        <v>3620070</v>
       </c>
     </row>
     <row r="17">
@@ -1056,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D17" t="n">
-        <v>106479</v>
+        <v>124830</v>
       </c>
     </row>
     <row r="18">
@@ -1073,7 +1073,7 @@
         <v>2016</v>
       </c>
       <c r="D18" t="n">
-        <v>207368403</v>
+        <v>1826827</v>
       </c>
     </row>
     <row r="19">
@@ -1087,91 +1087,91 @@
         <v>2017</v>
       </c>
       <c r="D19" t="n">
-        <v>191797545</v>
+        <v>916010</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="n">
-        <v>80359517</v>
+        <v>18966031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D21" t="n">
-        <v>86668253</v>
+        <v>14523970</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D22" t="n">
-        <v>14687308</v>
+        <v>14979600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>18966031</v>
+        <v>207368403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>2017</v>
       </c>
       <c r="D24" t="n">
-        <v>14523970</v>
+        <v>191797545</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
       </c>
       <c r="D25" t="n">
-        <v>14979600</v>
+        <v>80359517</v>
       </c>
     </row>
     <row r="26">
@@ -1182,24 +1182,24 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="n">
-        <v>2496601</v>
+        <v>86668253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>468730258</v>
+        <v>14687308</v>
       </c>
     </row>
     <row r="28">
@@ -1210,52 +1210,52 @@
         <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="n">
-        <v>318277565</v>
+        <v>2496601</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>191913398</v>
+        <v>468730258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D30" t="n">
-        <v>127757766</v>
+        <v>318277565</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D31" t="n">
-        <v>77212630</v>
+        <v>191913398</v>
       </c>
     </row>
     <row r="32">
@@ -1266,10 +1266,10 @@
         <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D32" t="n">
-        <v>1248300</v>
+        <v>127757766</v>
       </c>
     </row>
     <row r="33">
@@ -1280,21 +1280,21 @@
         <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>1248300</v>
+        <v>77212630</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="n">
         <v>1248300</v>
@@ -1302,13 +1302,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D35" t="n">
         <v>1248300</v>
@@ -1316,16 +1316,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="n">
-        <v>624150</v>
+        <v>1248300</v>
       </c>
     </row>
     <row r="37">
@@ -1336,10 +1336,10 @@
         <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D37" t="n">
-        <v>79437484</v>
+        <v>1248300</v>
       </c>
     </row>
     <row r="38">
@@ -1350,52 +1350,52 @@
         <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>125174222</v>
+        <v>624150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>26596806</v>
+        <v>79437484</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>23329918</v>
+        <v>125174222</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="n">
-        <v>124932</v>
+        <v>26596806</v>
       </c>
     </row>
     <row r="42">
@@ -1406,10 +1406,10 @@
         <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D42" t="n">
-        <v>744697</v>
+        <v>23329918</v>
       </c>
     </row>
     <row r="43">
@@ -1420,10 +1420,10 @@
         <v>27</v>
       </c>
       <c r="C43" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>817341</v>
+        <v>124932</v>
       </c>
     </row>
     <row r="44">
@@ -1434,24 +1434,24 @@
         <v>29</v>
       </c>
       <c r="C44" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="n">
-        <v>76784</v>
+        <v>744697</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="n">
-        <v>14053878</v>
+        <v>817341</v>
       </c>
     </row>
     <row r="46">
@@ -1465,49 +1465,49 @@
         <v>2017</v>
       </c>
       <c r="D46" t="n">
-        <v>27421277</v>
+        <v>76784</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>8762629</v>
+        <v>106153649</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="n">
-        <v>7054656</v>
+        <v>63830372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="n">
-        <v>3309756</v>
+        <v>36653741</v>
       </c>
     </row>
     <row r="50">
@@ -1518,10 +1518,10 @@
         <v>33</v>
       </c>
       <c r="C50" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D50" t="n">
-        <v>106153649</v>
+        <v>15373407</v>
       </c>
     </row>
     <row r="51">
@@ -1532,52 +1532,52 @@
         <v>33</v>
       </c>
       <c r="C51" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>63830372</v>
+        <v>7296509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C52" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="n">
-        <v>36653741</v>
+        <v>14053878</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="n">
-        <v>15373407</v>
+        <v>27421277</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="n">
-        <v>7296509</v>
+        <v>8762629</v>
       </c>
     </row>
     <row r="55">
@@ -1588,10 +1588,10 @@
         <v>35</v>
       </c>
       <c r="C55" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="n">
-        <v>120503891</v>
+        <v>7054656</v>
       </c>
     </row>
     <row r="56">
@@ -1602,38 +1602,38 @@
         <v>35</v>
       </c>
       <c r="C56" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>53883618</v>
+        <v>3309756</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>46187100</v>
+        <v>120503891</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="n">
-        <v>8738100</v>
+        <v>53883618</v>
       </c>
     </row>
     <row r="59">
@@ -1644,10 +1644,10 @@
         <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D59" t="n">
-        <v>6433733</v>
+        <v>46187100</v>
       </c>
     </row>
     <row r="60">
@@ -1658,38 +1658,38 @@
         <v>37</v>
       </c>
       <c r="C60" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D60" t="n">
-        <v>6958336</v>
+        <v>8738100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>7429881</v>
+        <v>6433733</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D62" t="n">
-        <v>4139050</v>
+        <v>6958336</v>
       </c>
     </row>
     <row r="63">
@@ -1700,10 +1700,10 @@
         <v>39</v>
       </c>
       <c r="C63" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D63" t="n">
-        <v>193837171</v>
+        <v>7429881</v>
       </c>
     </row>
     <row r="64">
@@ -1714,38 +1714,38 @@
         <v>39</v>
       </c>
       <c r="C64" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D64" t="n">
-        <v>54374710</v>
+        <v>4139050</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C65" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>38697300</v>
+        <v>193837171</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="n">
-        <v>26214300</v>
+        <v>54374710</v>
       </c>
     </row>
     <row r="67">
@@ -1756,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="C67" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D67" t="n">
-        <v>172136475</v>
+        <v>38697300</v>
       </c>
     </row>
     <row r="68">
@@ -1770,52 +1770,52 @@
         <v>41</v>
       </c>
       <c r="C68" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D68" t="n">
-        <v>203034644</v>
+        <v>26214300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>89551319</v>
+        <v>172136475</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C70" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D70" t="n">
-        <v>34205891</v>
+        <v>203034644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C71" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D71" t="n">
-        <v>4713158</v>
+        <v>89551319</v>
       </c>
     </row>
     <row r="72">
@@ -1826,10 +1826,10 @@
         <v>43</v>
       </c>
       <c r="C72" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D72" t="n">
-        <v>2603133</v>
+        <v>34205891</v>
       </c>
     </row>
     <row r="73">
@@ -1840,52 +1840,52 @@
         <v>43</v>
       </c>
       <c r="C73" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>9705412</v>
+        <v>4713158</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C74" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D74" t="n">
-        <v>6765048</v>
+        <v>2603133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C75" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="n">
-        <v>1879882</v>
+        <v>9705412</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C76" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="n">
-        <v>1414795</v>
+        <v>6765048</v>
       </c>
     </row>
     <row r="77">
@@ -1896,10 +1896,10 @@
         <v>45</v>
       </c>
       <c r="C77" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="n">
-        <v>1826827</v>
+        <v>1879882</v>
       </c>
     </row>
     <row r="78">
@@ -1910,10 +1910,10 @@
         <v>45</v>
       </c>
       <c r="C78" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>916010</v>
+        <v>1414795</v>
       </c>
     </row>
     <row r="79">
@@ -1997,7 +1997,7 @@
         <v>2016</v>
       </c>
       <c r="D84" t="n">
-        <v>6908931</v>
+        <v>5727743</v>
       </c>
     </row>
     <row r="85">
@@ -2011,35 +2011,35 @@
         <v>2017</v>
       </c>
       <c r="D85" t="n">
-        <v>4252211</v>
+        <v>1123470</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C86" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D86" t="n">
-        <v>111737</v>
+        <v>6908931</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C87" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D87" t="n">
-        <v>86603</v>
+        <v>4252211</v>
       </c>
     </row>
     <row r="88">
@@ -2050,10 +2050,10 @@
         <v>53</v>
       </c>
       <c r="C88" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D88" t="n">
-        <v>5727743</v>
+        <v>111737</v>
       </c>
     </row>
     <row r="89">
@@ -2064,10 +2064,10 @@
         <v>53</v>
       </c>
       <c r="C89" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D89" t="n">
-        <v>1123470</v>
+        <v>86603</v>
       </c>
     </row>
     <row r="90">
@@ -2109,7 +2109,7 @@
         <v>2016</v>
       </c>
       <c r="D92" t="n">
-        <v>485765</v>
+        <v>123520757</v>
       </c>
     </row>
     <row r="93">
@@ -2123,49 +2123,49 @@
         <v>2017</v>
       </c>
       <c r="D93" t="n">
-        <v>52428</v>
+        <v>89382014</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C94" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D94" t="n">
-        <v>116791009</v>
+        <v>24881902</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C95" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D95" t="n">
-        <v>97449223</v>
+        <v>11525002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C96" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D96" t="n">
-        <v>65743256</v>
+        <v>2122110</v>
       </c>
     </row>
     <row r="97">
@@ -2176,10 +2176,10 @@
         <v>59</v>
       </c>
       <c r="C97" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>36014703</v>
+        <v>485765</v>
       </c>
     </row>
     <row r="98">
@@ -2190,10 +2190,10 @@
         <v>59</v>
       </c>
       <c r="C98" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D98" t="n">
-        <v>19535895</v>
+        <v>52428</v>
       </c>
     </row>
     <row r="99">
@@ -2235,7 +2235,7 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>123520757</v>
+        <v>75087485</v>
       </c>
     </row>
     <row r="102">
@@ -2249,7 +2249,7 @@
         <v>2017</v>
       </c>
       <c r="D102" t="n">
-        <v>89382014</v>
+        <v>48141261</v>
       </c>
     </row>
     <row r="103">
@@ -2263,7 +2263,7 @@
         <v>2018</v>
       </c>
       <c r="D103" t="n">
-        <v>24881902</v>
+        <v>29551249</v>
       </c>
     </row>
     <row r="104">
@@ -2277,7 +2277,7 @@
         <v>2019</v>
       </c>
       <c r="D104" t="n">
-        <v>11525002</v>
+        <v>14084345</v>
       </c>
     </row>
     <row r="105">
@@ -2291,7 +2291,7 @@
         <v>2020</v>
       </c>
       <c r="D105" t="n">
-        <v>2122110</v>
+        <v>5016666</v>
       </c>
     </row>
     <row r="106">
@@ -2305,7 +2305,7 @@
         <v>2016</v>
       </c>
       <c r="D106" t="n">
-        <v>75087485</v>
+        <v>116791009</v>
       </c>
     </row>
     <row r="107">
@@ -2319,7 +2319,7 @@
         <v>2017</v>
       </c>
       <c r="D107" t="n">
-        <v>48141261</v>
+        <v>97449223</v>
       </c>
     </row>
     <row r="108">
@@ -2333,7 +2333,7 @@
         <v>2018</v>
       </c>
       <c r="D108" t="n">
-        <v>29551249</v>
+        <v>65743256</v>
       </c>
     </row>
     <row r="109">
@@ -2347,7 +2347,7 @@
         <v>2019</v>
       </c>
       <c r="D109" t="n">
-        <v>14084345</v>
+        <v>36014703</v>
       </c>
     </row>
     <row r="110">
@@ -2361,7 +2361,7 @@
         <v>2020</v>
       </c>
       <c r="D110" t="n">
-        <v>5016666</v>
+        <v>19535895</v>
       </c>
     </row>
     <row r="111">
@@ -2375,7 +2375,7 @@
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>399973817</v>
+        <v>115402932</v>
       </c>
     </row>
     <row r="112">
@@ -2389,7 +2389,7 @@
         <v>2017</v>
       </c>
       <c r="D112" t="n">
-        <v>288559786</v>
+        <v>117096328</v>
       </c>
     </row>
     <row r="113">
@@ -2403,7 +2403,7 @@
         <v>2018</v>
       </c>
       <c r="D113" t="n">
-        <v>123723736</v>
+        <v>89409949</v>
       </c>
     </row>
     <row r="114">
@@ -2417,7 +2417,7 @@
         <v>2019</v>
       </c>
       <c r="D114" t="n">
-        <v>170650215</v>
+        <v>87818158</v>
       </c>
     </row>
     <row r="115">
@@ -2431,7 +2431,7 @@
         <v>2020</v>
       </c>
       <c r="D115" t="n">
-        <v>85443099</v>
+        <v>85345782</v>
       </c>
     </row>
     <row r="116">
@@ -2445,7 +2445,7 @@
         <v>2016</v>
       </c>
       <c r="D116" t="n">
-        <v>115402932</v>
+        <v>399973817</v>
       </c>
     </row>
     <row r="117">
@@ -2459,7 +2459,7 @@
         <v>2017</v>
       </c>
       <c r="D117" t="n">
-        <v>117096328</v>
+        <v>288559786</v>
       </c>
     </row>
     <row r="118">
@@ -2473,7 +2473,7 @@
         <v>2018</v>
       </c>
       <c r="D118" t="n">
-        <v>89409949</v>
+        <v>123723736</v>
       </c>
     </row>
     <row r="119">
@@ -2487,7 +2487,7 @@
         <v>2019</v>
       </c>
       <c r="D119" t="n">
-        <v>87818158</v>
+        <v>170650215</v>
       </c>
     </row>
     <row r="120">
@@ -2501,7 +2501,7 @@
         <v>2020</v>
       </c>
       <c r="D120" t="n">
-        <v>85345782</v>
+        <v>85443099</v>
       </c>
     </row>
     <row r="121">
@@ -2515,63 +2515,63 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>2518505</v>
+        <v>557004367</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C122" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D122" t="n">
-        <v>557004367</v>
+        <v>390505393</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C123" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D123" t="n">
-        <v>390505393</v>
+        <v>425939339</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C124" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D124" t="n">
-        <v>425939339</v>
+        <v>353935745</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C125" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D125" t="n">
-        <v>353935745</v>
+        <v>254158056</v>
       </c>
     </row>
     <row r="126">
@@ -2582,66 +2582,66 @@
         <v>73</v>
       </c>
       <c r="C126" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>254158056</v>
+        <v>46488191</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C127" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D127" t="n">
-        <v>46488191</v>
+        <v>48226800</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C128" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="n">
-        <v>48226800</v>
+        <v>47306174</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C129" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D129" t="n">
-        <v>47306174</v>
+        <v>45774977</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C130" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="n">
-        <v>45774977</v>
+        <v>43877529</v>
       </c>
     </row>
     <row r="131">
@@ -2652,10 +2652,10 @@
         <v>75</v>
       </c>
       <c r="C131" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>43877529</v>
+        <v>2518505</v>
       </c>
     </row>
     <row r="132">
@@ -2739,7 +2739,7 @@
         <v>2016</v>
       </c>
       <c r="D137" t="n">
-        <v>55587419</v>
+        <v>14331626</v>
       </c>
     </row>
     <row r="138">
@@ -2750,52 +2750,52 @@
         <v>79</v>
       </c>
       <c r="C138" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D138" t="n">
-        <v>21850178</v>
+        <v>6342159</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C139" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>35912249</v>
+        <v>233320623</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C140" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D140" t="n">
-        <v>5260145</v>
+        <v>152614852</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C141" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D141" t="n">
-        <v>1872450</v>
+        <v>51190824</v>
       </c>
     </row>
     <row r="142">
@@ -2806,10 +2806,10 @@
         <v>81</v>
       </c>
       <c r="C142" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D142" t="n">
-        <v>14331626</v>
+        <v>34832362</v>
       </c>
     </row>
     <row r="143">
@@ -2820,10 +2820,10 @@
         <v>81</v>
       </c>
       <c r="C143" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D143" t="n">
-        <v>6342159</v>
+        <v>13593566</v>
       </c>
     </row>
     <row r="144">
@@ -2837,7 +2837,7 @@
         <v>2016</v>
       </c>
       <c r="D144" t="n">
-        <v>233320623</v>
+        <v>155716050</v>
       </c>
     </row>
     <row r="145">
@@ -2851,7 +2851,7 @@
         <v>2017</v>
       </c>
       <c r="D145" t="n">
-        <v>152614852</v>
+        <v>99051699</v>
       </c>
     </row>
     <row r="146">
@@ -2865,7 +2865,7 @@
         <v>2018</v>
       </c>
       <c r="D146" t="n">
-        <v>51190824</v>
+        <v>53822459</v>
       </c>
     </row>
     <row r="147">
@@ -2879,7 +2879,7 @@
         <v>2019</v>
       </c>
       <c r="D147" t="n">
-        <v>34832362</v>
+        <v>35315883</v>
       </c>
     </row>
     <row r="148">
@@ -2893,7 +2893,7 @@
         <v>2020</v>
       </c>
       <c r="D148" t="n">
-        <v>13593566</v>
+        <v>25794597</v>
       </c>
     </row>
     <row r="149">
@@ -2907,7 +2907,7 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>155716050</v>
+        <v>1017058</v>
       </c>
     </row>
     <row r="150">
@@ -2921,49 +2921,49 @@
         <v>2017</v>
       </c>
       <c r="D150" t="n">
-        <v>99051699</v>
+        <v>842098</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C151" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>53822459</v>
+        <v>252673982</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C152" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D152" t="n">
-        <v>35315883</v>
+        <v>181901090</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C153" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D153" t="n">
-        <v>25794597</v>
+        <v>98111561</v>
       </c>
     </row>
     <row r="154">
@@ -2974,10 +2974,10 @@
         <v>87</v>
       </c>
       <c r="C154" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D154" t="n">
-        <v>252673982</v>
+        <v>65475990</v>
       </c>
     </row>
     <row r="155">
@@ -2988,52 +2988,52 @@
         <v>87</v>
       </c>
       <c r="C155" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D155" t="n">
-        <v>181901090</v>
+        <v>1229611</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C156" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>98111561</v>
+        <v>55587419</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C157" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="n">
-        <v>65475990</v>
+        <v>21850178</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C158" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D158" t="n">
-        <v>1229611</v>
+        <v>35912249</v>
       </c>
     </row>
     <row r="159">
@@ -3044,10 +3044,10 @@
         <v>89</v>
       </c>
       <c r="C159" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D159" t="n">
-        <v>248926601</v>
+        <v>5260145</v>
       </c>
     </row>
     <row r="160">
@@ -3058,24 +3058,24 @@
         <v>89</v>
       </c>
       <c r="C160" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D160" t="n">
-        <v>51552726</v>
+        <v>1872450</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C161" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D161" t="n">
-        <v>10610550</v>
+        <v>248926601</v>
       </c>
     </row>
     <row r="162">
@@ -3086,10 +3086,10 @@
         <v>91</v>
       </c>
       <c r="C162" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D162" t="n">
-        <v>6859130</v>
+        <v>51552726</v>
       </c>
     </row>
     <row r="163">
@@ -3100,52 +3100,52 @@
         <v>91</v>
       </c>
       <c r="C163" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D163" t="n">
-        <v>8161937</v>
+        <v>10610550</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C164" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>4832922</v>
+        <v>6859130</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B165" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C165" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D165" t="n">
-        <v>1607810</v>
+        <v>8161937</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C166" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D166" t="n">
-        <v>242859</v>
+        <v>4832922</v>
       </c>
     </row>
     <row r="167">
@@ -3156,10 +3156,10 @@
         <v>93</v>
       </c>
       <c r="C167" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="n">
-        <v>110418171</v>
+        <v>1607810</v>
       </c>
     </row>
     <row r="168">
@@ -3170,38 +3170,38 @@
         <v>93</v>
       </c>
       <c r="C168" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D168" t="n">
-        <v>156037500</v>
+        <v>242859</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B169" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C169" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D169" t="n">
-        <v>78642898</v>
+        <v>267813058</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C170" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D170" t="n">
-        <v>14979600</v>
+        <v>224895606</v>
       </c>
     </row>
     <row r="171">
@@ -3212,10 +3212,10 @@
         <v>95</v>
       </c>
       <c r="C171" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D171" t="n">
-        <v>267813058</v>
+        <v>188308441</v>
       </c>
     </row>
     <row r="172">
@@ -3226,10 +3226,10 @@
         <v>95</v>
       </c>
       <c r="C172" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D172" t="n">
-        <v>224895606</v>
+        <v>126469774</v>
       </c>
     </row>
     <row r="173">
@@ -3240,38 +3240,38 @@
         <v>95</v>
       </c>
       <c r="C173" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D173" t="n">
-        <v>188308441</v>
+        <v>41861901</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B174" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C174" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D174" t="n">
-        <v>126469774</v>
+        <v>110418171</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B175" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C175" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D175" t="n">
-        <v>41861901</v>
+        <v>156037500</v>
       </c>
     </row>
     <row r="176">
@@ -3282,10 +3282,10 @@
         <v>97</v>
       </c>
       <c r="C176" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="n">
-        <v>13353824</v>
+        <v>78642898</v>
       </c>
     </row>
     <row r="177">
@@ -3296,10 +3296,10 @@
         <v>97</v>
       </c>
       <c r="C177" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D177" t="n">
-        <v>2216389</v>
+        <v>14979600</v>
       </c>
     </row>
     <row r="178">
@@ -3383,21 +3383,21 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>657036</v>
+        <v>13353824</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B184" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C184" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D184" t="n">
-        <v>114190094</v>
+        <v>2216389</v>
       </c>
     </row>
     <row r="185">
@@ -3408,10 +3408,10 @@
         <v>103</v>
       </c>
       <c r="C185" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>61538899</v>
+        <v>657036</v>
       </c>
     </row>
     <row r="186">
@@ -3425,7 +3425,7 @@
         <v>2016</v>
       </c>
       <c r="D186" t="n">
-        <v>1017058</v>
+        <v>114190094</v>
       </c>
     </row>
     <row r="187">
@@ -3439,7 +3439,7 @@
         <v>2017</v>
       </c>
       <c r="D187" t="n">
-        <v>842098</v>
+        <v>61538899</v>
       </c>
     </row>
     <row r="188">
@@ -3587,18 +3587,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3606,55 +3609,58 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>182633878</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>170172550</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>128520822</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>312075</v>
       </c>
-      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>1159685</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4617409</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1818700</v>
-      </c>
+        <v>106479</v>
+      </c>
+      <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" t="n">
-        <v>476819</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>203118897</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>181530392</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>119612094</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>83875381</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>103063053</v>
       </c>
     </row>
@@ -3662,199 +3668,235 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>3620070</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>124830</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
+        <v>1159685</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4617409</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1818700</v>
+      </c>
       <c r="F5"/>
+      <c r="G5" t="n">
+        <v>476819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>106479</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3620070</v>
+      </c>
+      <c r="D6" t="n">
+        <v>124830</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>207368403</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>191797545</v>
+        <v>1826827</v>
       </c>
       <c r="D7" t="n">
-        <v>80359517</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14687308</v>
-      </c>
-      <c r="F7" t="n">
-        <v>86668253</v>
-      </c>
+        <v>916010</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
         <v>18966031</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>14523970</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>14979600</v>
       </c>
-      <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>2496601</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>207368403</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191797545</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80359517</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14687308</v>
+      </c>
+      <c r="G9" t="n">
+        <v>86668253</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>468730258</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>318277565</v>
-      </c>
-      <c r="D10" t="n">
-        <v>191913398</v>
-      </c>
-      <c r="E10" t="n">
-        <v>77212630</v>
-      </c>
-      <c r="F10" t="n">
-        <v>127757766</v>
-      </c>
+        <v>2496601</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>1248300</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>1248300</v>
+        <v>468730258</v>
       </c>
       <c r="D11" t="n">
-        <v>1248300</v>
+        <v>318277565</v>
       </c>
       <c r="E11" t="n">
-        <v>624150</v>
+        <v>191913398</v>
       </c>
       <c r="F11" t="n">
-        <v>1248300</v>
+        <v>77212630</v>
+      </c>
+      <c r="G11" t="n">
+        <v>127757766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>79437484</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>125174222</v>
+        <v>1248300</v>
       </c>
       <c r="D12" t="n">
-        <v>26596806</v>
+        <v>1248300</v>
       </c>
       <c r="E12" t="n">
-        <v>124932</v>
+        <v>1248300</v>
       </c>
       <c r="F12" t="n">
-        <v>23329918</v>
+        <v>624150</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1248300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>744697</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>817341</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>79437484</v>
+      </c>
+      <c r="D13" t="n">
+        <v>125174222</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26596806</v>
+      </c>
+      <c r="F13" t="n">
+        <v>124932</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23329918</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
-        <v>76784</v>
-      </c>
-      <c r="D14"/>
+        <v>744697</v>
+      </c>
+      <c r="D14" t="n">
+        <v>817341</v>
+      </c>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>14053878</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27421277</v>
-      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15"/>
       <c r="D15" t="n">
-        <v>8762629</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3309756</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7054656</v>
-      </c>
+        <v>76784</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
         <v>106153649</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>63830372</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>36653741</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7296509</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>15373407</v>
       </c>
     </row>
@@ -3862,137 +3904,167 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>120503891</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>53883618</v>
+        <v>14053878</v>
       </c>
       <c r="D17" t="n">
-        <v>46187100</v>
-      </c>
-      <c r="E17"/>
+        <v>27421277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8762629</v>
+      </c>
       <c r="F17" t="n">
-        <v>8738100</v>
+        <v>3309756</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7054656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>6433733</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>6958336</v>
+        <v>120503891</v>
       </c>
       <c r="D18" t="n">
-        <v>7429881</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="n">
-        <v>4139050</v>
+        <v>53883618</v>
+      </c>
+      <c r="E18" t="n">
+        <v>46187100</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="n">
+        <v>8738100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>193837171</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>54374710</v>
+        <v>6433733</v>
       </c>
       <c r="D19" t="n">
-        <v>38697300</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="n">
-        <v>26214300</v>
+        <v>6958336</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7429881</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>4139050</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>172136475</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>203034644</v>
+        <v>193837171</v>
       </c>
       <c r="D20" t="n">
-        <v>89551319</v>
+        <v>54374710</v>
       </c>
       <c r="E20" t="n">
-        <v>4713158</v>
-      </c>
-      <c r="F20" t="n">
-        <v>34205891</v>
+        <v>38697300</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>26214300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>2603133</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>9705412</v>
+        <v>172136475</v>
       </c>
       <c r="D21" t="n">
-        <v>6765048</v>
+        <v>203034644</v>
       </c>
       <c r="E21" t="n">
-        <v>1414795</v>
+        <v>89551319</v>
       </c>
       <c r="F21" t="n">
-        <v>1879882</v>
+        <v>4713158</v>
+      </c>
+      <c r="G21" t="n">
+        <v>34205891</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>1826827</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>916010</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>2603133</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9705412</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6765048</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1414795</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1879882</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
         <v>823919</v>
       </c>
-      <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
         <v>128988847</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>31579771</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>18724500</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="n">
+      <c r="F24"/>
+      <c r="G24" t="n">
         <v>13731300</v>
       </c>
     </row>
@@ -4000,245 +4072,287 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>6908931</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>4252211</v>
+        <v>5727743</v>
       </c>
       <c r="D25" t="n">
-        <v>111737</v>
+        <v>1123470</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="n">
-        <v>86603</v>
-      </c>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>5727743</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1123470</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
+        <v>6908931</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4252211</v>
+      </c>
+      <c r="E26" t="n">
+        <v>111737</v>
+      </c>
       <c r="F26"/>
+      <c r="G26" t="n">
+        <v>86603</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
         <v>4237227</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>1286993</v>
       </c>
-      <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>485765</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>52428</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>123520757</v>
+      </c>
+      <c r="D28" t="n">
+        <v>89382014</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24881902</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2122110</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11525002</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>116791009</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>97449223</v>
+        <v>485765</v>
       </c>
       <c r="D29" t="n">
-        <v>65743256</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19535895</v>
-      </c>
-      <c r="F29" t="n">
-        <v>36014703</v>
-      </c>
+        <v>52428</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
         <v>39627943</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>9985759</v>
       </c>
-      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>123520757</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>89382014</v>
+        <v>75087485</v>
       </c>
       <c r="D31" t="n">
-        <v>24881902</v>
+        <v>48141261</v>
       </c>
       <c r="E31" t="n">
-        <v>2122110</v>
+        <v>29551249</v>
       </c>
       <c r="F31" t="n">
-        <v>11525002</v>
+        <v>5016666</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14084345</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>75087485</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>48141261</v>
+        <v>116791009</v>
       </c>
       <c r="D32" t="n">
-        <v>29551249</v>
+        <v>97449223</v>
       </c>
       <c r="E32" t="n">
-        <v>5016666</v>
+        <v>65743256</v>
       </c>
       <c r="F32" t="n">
-        <v>14084345</v>
+        <v>19535895</v>
+      </c>
+      <c r="G32" t="n">
+        <v>36014703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>399973817</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>288559786</v>
+        <v>115402932</v>
       </c>
       <c r="D33" t="n">
-        <v>123723736</v>
+        <v>117096328</v>
       </c>
       <c r="E33" t="n">
-        <v>85443099</v>
+        <v>89409949</v>
       </c>
       <c r="F33" t="n">
-        <v>170650215</v>
+        <v>85345782</v>
+      </c>
+      <c r="G33" t="n">
+        <v>87818158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>115402932</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>117096328</v>
+        <v>399973817</v>
       </c>
       <c r="D34" t="n">
-        <v>89409949</v>
+        <v>288559786</v>
       </c>
       <c r="E34" t="n">
-        <v>85345782</v>
+        <v>123723736</v>
       </c>
       <c r="F34" t="n">
-        <v>87818158</v>
+        <v>85443099</v>
+      </c>
+      <c r="G34" t="n">
+        <v>170650215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>2518505</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>557004367</v>
+      </c>
+      <c r="D35" t="n">
+        <v>390505393</v>
+      </c>
+      <c r="E35" t="n">
+        <v>425939339</v>
+      </c>
+      <c r="F35" t="n">
+        <v>254158056</v>
+      </c>
+      <c r="G35" t="n">
+        <v>353935745</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>557004367</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>390505393</v>
+        <v>46488191</v>
       </c>
       <c r="D36" t="n">
-        <v>425939339</v>
+        <v>48226800</v>
       </c>
       <c r="E36" t="n">
-        <v>254158056</v>
+        <v>47306174</v>
       </c>
       <c r="F36" t="n">
-        <v>353935745</v>
+        <v>43877529</v>
+      </c>
+      <c r="G36" t="n">
+        <v>45774977</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>46488191</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>48226800</v>
-      </c>
-      <c r="D37" t="n">
-        <v>47306174</v>
-      </c>
-      <c r="E37" t="n">
-        <v>43877529</v>
-      </c>
-      <c r="F37" t="n">
-        <v>45774977</v>
-      </c>
+        <v>2518505</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
         <v>81324162</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>53196321</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>15661422</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>4951244</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>11081658</v>
       </c>
     </row>
@@ -4246,93 +4360,102 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>55587419</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>21850178</v>
-      </c>
-      <c r="D39" t="n">
-        <v>35912249</v>
-      </c>
+        <v>14331626</v>
+      </c>
+      <c r="D39"/>
       <c r="E39" t="n">
-        <v>1872450</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5260145</v>
-      </c>
+        <v>6342159</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>14331626</v>
-      </c>
-      <c r="C40"/>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>233320623</v>
+      </c>
       <c r="D40" t="n">
-        <v>6342159</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>152614852</v>
+      </c>
+      <c r="E40" t="n">
+        <v>51190824</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13593566</v>
+      </c>
+      <c r="G40" t="n">
+        <v>34832362</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>233320623</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>152614852</v>
+        <v>155716050</v>
       </c>
       <c r="D41" t="n">
-        <v>51190824</v>
+        <v>99051699</v>
       </c>
       <c r="E41" t="n">
-        <v>13593566</v>
+        <v>53822459</v>
       </c>
       <c r="F41" t="n">
-        <v>34832362</v>
+        <v>25794597</v>
+      </c>
+      <c r="G41" t="n">
+        <v>35315883</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>155716050</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>99051699</v>
+        <v>1017058</v>
       </c>
       <c r="D42" t="n">
-        <v>53822459</v>
-      </c>
-      <c r="E42" t="n">
-        <v>25794597</v>
-      </c>
-      <c r="F42" t="n">
-        <v>35315883</v>
-      </c>
+        <v>842098</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
         <v>252673982</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>181901090</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>98111561</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1229611</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>65475990</v>
       </c>
     </row>
@@ -4340,73 +4463,87 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>248926601</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>51552726</v>
+        <v>55587419</v>
       </c>
       <c r="D44" t="n">
-        <v>10610550</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>21850178</v>
+      </c>
+      <c r="E44" t="n">
+        <v>35912249</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1872450</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5260145</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>6859130</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>8161937</v>
+        <v>248926601</v>
       </c>
       <c r="D45" t="n">
-        <v>4832922</v>
+        <v>51552726</v>
       </c>
       <c r="E45" t="n">
-        <v>242859</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1607810</v>
-      </c>
+        <v>10610550</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>110418171</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>156037500</v>
+        <v>6859130</v>
       </c>
       <c r="D46" t="n">
-        <v>78642898</v>
-      </c>
-      <c r="E46"/>
+        <v>8161937</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4832922</v>
+      </c>
       <c r="F46" t="n">
-        <v>14979600</v>
+        <v>242859</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1607810</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
         <v>267813058</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>224895606</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>188308441</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>41861901</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>126469774</v>
       </c>
     </row>
@@ -4414,33 +4551,43 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>13353824</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>2216389</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
+        <v>110418171</v>
+      </c>
+      <c r="D48" t="n">
+        <v>156037500</v>
+      </c>
+      <c r="E48" t="n">
+        <v>78642898</v>
+      </c>
       <c r="F48"/>
+      <c r="G48" t="n">
+        <v>14979600</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
         <v>128969919</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>41466120</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>39514291</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>38398259</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>42994929</v>
       </c>
     </row>
@@ -4448,59 +4595,71 @@
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>657036</v>
-      </c>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13353824</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2216389</v>
+      </c>
       <c r="E50"/>
       <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>114190094</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>61538899</v>
+        <v>657036</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>1017058</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>842098</v>
-      </c>
-      <c r="D52"/>
+        <v>114190094</v>
+      </c>
+      <c r="D52" t="n">
+        <v>61538899</v>
+      </c>
       <c r="E52"/>
       <c r="F52"/>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
         <v>76029871</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>89666294</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>46225185</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>35978185</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>27672245</v>
       </c>
     </row>
@@ -4508,17 +4667,20 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
         <v>117816247</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>64659374</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>14089336</v>
       </c>
-      <c r="E54"/>
-      <c r="F54" t="n">
+      <c r="F54"/>
+      <c r="G54" t="n">
         <v>2524910</v>
       </c>
     </row>

--- a/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
+++ b/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -364,13 +364,19 @@
     <t xml:space="preserve">Name: iati-budgets-gb</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The data shows forward looking budget data reported to the International Aid Transparency Initiative (IATI) by the UK for existing or committed projects spanning multiple years. Budget data is displayed for the Department for International Development only. This visualisation shows only project financing for specific countries: Regional and unspecified funding is excluded.</t>
+    <t xml:space="preserve">Description: UK DFID forward-looking budgets for each country based on activities reported through IATI.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initaitives based on UK DFID data downloaded via the IATI Registry on 15 December 2016.</t>
+    <t xml:space="preserve">Source: 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -379,25 +385,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -750,63 +750,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>127</v>
       </c>
     </row>

--- a/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
+++ b/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 52</t>
+    <t xml:space="preserve">Source: 53</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
+++ b/user-data/iati-budgets-gb/iati-budgets-gb.xlsx
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 53</t>
+    <t xml:space="preserve">Source: 52</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
